--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 10 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 11 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Statistikdatum</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Data uppdateras dagligen kl 11.30 och finns tillgägliga dagligen kl 14.00. Läs mer på https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/</t>
-  </si>
-  <si>
-    <t>uppgift saknas</t>
   </si>
 </sst>
 </file>
@@ -508,11 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N43" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -4992,7 +4994,7 @@
         <v>43927</v>
       </c>
       <c r="B64" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -5028,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="N64" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O64" s="2">
         <v>18</v>
@@ -5205,10 +5207,10 @@
         <v>43930</v>
       </c>
       <c r="B67" s="2">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2">
         <v>30</v>
@@ -5220,7 +5222,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" s="2">
         <v>8</v>
@@ -5232,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L67" s="2">
         <v>5</v>
@@ -5241,13 +5243,13 @@
         <v>11</v>
       </c>
       <c r="N67" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O67" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P67" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q67" s="2">
         <v>4</v>
@@ -5262,13 +5264,13 @@
         <v>24</v>
       </c>
       <c r="U67" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="V67" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W67" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5276,69 +5278,140 @@
         <v>43931</v>
       </c>
       <c r="B68" s="2">
-        <v>123</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I68" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M68" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N68" s="2">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="O68" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="P68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q68" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R68" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S68" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T68" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="U68" s="2">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="V68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W68" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B69" s="2">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>79</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0</v>
+      </c>
+      <c r="U69" s="2">
+        <v>2</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
         <v>17</v>
       </c>
     </row>
@@ -5351,11 +5424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -5554,7 +5630,7 @@
         <v>43924</v>
       </c>
       <c r="B25" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5594,7 +5670,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5602,7 +5678,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5610,12 +5686,12 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
         <v>13</v>
@@ -5628,11 +5704,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -5903,7 +5982,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5911,7 +5990,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5919,7 +5998,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5927,7 +6006,15 @@
         <v>43931</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5941,7 +6028,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5965,10 +6052,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
-        <v>24.435171127319336</v>
+        <v>25.688257217407227</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5982,16 +6069,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C3" s="2">
-        <v>102.78990936279297</v>
+        <v>108.69338989257813</v>
       </c>
       <c r="D3" s="2">
         <v>18</v>
       </c>
       <c r="E3" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6016,13 +6103,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2">
-        <v>85.25238037109375</v>
+        <v>91.515823364257813</v>
       </c>
       <c r="D5" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>27</v>
@@ -6033,10 +6120,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2">
-        <v>52.419063568115234</v>
+        <v>53.916751861572266</v>
       </c>
       <c r="D6" s="2">
         <v>14</v>
@@ -6050,13 +6137,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2">
-        <v>87.913764953613281</v>
+        <v>94.029510498046875</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -6067,10 +6154,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C8" s="2">
-        <v>87.1839599609375</v>
+        <v>92.409492492675781</v>
       </c>
       <c r="D8" s="2">
         <v>27</v>
@@ -6084,10 +6171,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
-        <v>26.074981689453125</v>
+        <v>26.482402801513672</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -6101,10 +6188,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2">
-        <v>40.7010498046875</v>
+        <v>43.182823181152344</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -6118,13 +6205,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2">
-        <v>50.781108856201172</v>
+        <v>53.180217742919922</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
         <v>7</v>
@@ -6135,16 +6222,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="C12" s="2">
-        <v>29.394111633300781</v>
+        <v>31.135984420776367</v>
       </c>
       <c r="D12" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6152,16 +6239,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>4061</v>
+        <v>4205</v>
       </c>
       <c r="C13" s="2">
-        <v>170.83978271484375</v>
+        <v>176.89762878417969</v>
       </c>
       <c r="D13" s="2">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E13" s="2">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6169,16 +6256,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="C14" s="2">
-        <v>200.64529418945313</v>
+        <v>214.76104736328125</v>
       </c>
       <c r="D14" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6186,13 +6273,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C15" s="2">
-        <v>112.32353210449219</v>
+        <v>113.88719940185547</v>
       </c>
       <c r="D15" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>30</v>
@@ -6203,13 +6290,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2">
-        <v>24.786306381225586</v>
+        <v>25.848577499389648</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -6220,10 +6307,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2">
-        <v>61.088703155517578</v>
+        <v>66.6087646484375</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
@@ -6237,16 +6324,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
-        <v>37.497909545898438</v>
+        <v>40.758598327636719</v>
       </c>
       <c r="D18" s="2">
         <v>8</v>
       </c>
       <c r="E18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6254,13 +6341,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C19" s="2">
-        <v>98.968620300292969</v>
+        <v>108.03168487548828</v>
       </c>
       <c r="D19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
         <v>16</v>
@@ -6271,13 +6358,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>902</v>
+        <v>982</v>
       </c>
       <c r="C20" s="2">
-        <v>52.263164520263672</v>
+        <v>56.898475646972656</v>
       </c>
       <c r="D20" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2">
         <v>49</v>
@@ -6288,13 +6375,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C21" s="2">
-        <v>99.079742431640625</v>
+        <v>101.04821014404297</v>
       </c>
       <c r="D21" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
@@ -6305,13 +6392,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>910</v>
+        <v>942</v>
       </c>
       <c r="C22" s="2">
-        <v>195.49081420898438</v>
+        <v>202.36521911621094</v>
       </c>
       <c r="D22" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2">
         <v>32</v>
@@ -6326,9 +6413,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6349,13 +6438,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>4751</v>
+        <v>4964</v>
       </c>
       <c r="C2" s="2">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="D2" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6363,13 +6452,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>4932</v>
+        <v>5185</v>
       </c>
       <c r="C3" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6395,9 +6484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6418,7 +6509,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6446,10 +6537,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="C4" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -6460,10 +6551,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="C5" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -6474,10 +6565,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>1252</v>
+        <v>1310</v>
       </c>
       <c r="C6" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -6488,10 +6579,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>1687</v>
+        <v>1759</v>
       </c>
       <c r="C7" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D7" s="2">
         <v>34</v>
@@ -6502,10 +6593,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>1345</v>
+        <v>1407</v>
       </c>
       <c r="C8" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D8" s="2">
         <v>64</v>
@@ -6516,13 +6607,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>1363</v>
+        <v>1419</v>
       </c>
       <c r="C9" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6530,13 +6621,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>1442</v>
+        <v>1536</v>
       </c>
       <c r="C10" s="2">
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6544,13 +6635,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6576,9 +6667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
